--- a/examples/custom_posterior_mu.xlsx
+++ b/examples/custom_posterior_mu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danycajas/Dropbox/GitHub/Riskfolio-Lib/examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danycajas/Library/CloudStorage/Dropbox/GitHub/Riskfolio-Lib/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C26816-0EBB-6C4D-95D7-FA8D43B0F5B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC8D311-AD98-034D-A408-E85298993C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5800" yWindow="460" windowWidth="10000" windowHeight="11960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5800" yWindow="760" windowWidth="15240" windowHeight="11960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,7 +111,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -133,9 +133,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -173,9 +173,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -208,26 +208,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,26 +243,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -456,81 +422,84 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>4.6418936721057541E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>6.7297328060139272E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B4">
         <v>6.358911850426506E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>8.4484371485612081E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B6">
         <v>4.5142296305250434E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B7">
         <v>7.2896291295544313E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>6.7297328060139272E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B8">
         <v>5.7506182985517754E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>8.4484371485612081E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>7.2004390586299483E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>4.6418936721057541E-2</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B9">
+    <sortCondition ref="A2:A9"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>